--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Con.Uni.MCP1_Plaque.Cytokines_Plaques.RANK.MODEL1.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Con.Uni.MCP1_Plaque.Cytokines_Plaques.RANK.MODEL1.xlsx
@@ -479,7 +479,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -539,31 +539,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0796697512311631</v>
+        <v>-0.0796697512311674</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0498908452158649</v>
+        <v>0.0498908452158645</v>
       </c>
       <c r="F2" t="n">
-        <v>0.923421254768561</v>
+        <v>0.923421254768557</v>
       </c>
       <c r="G2" t="n">
-        <v>0.837398004932747</v>
+        <v>0.837398004932744</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0182814011204</v>
+        <v>1.01828140112039</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.59688116900911</v>
+        <v>-1.59688116900922</v>
       </c>
       <c r="J2" t="n">
-        <v>0.111232218832591</v>
+        <v>0.111232218832569</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0663139501788481</v>
+        <v>0.066313950178864</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0551986400619296</v>
+        <v>0.0551986400619457</v>
       </c>
       <c r="M2" t="n">
         <v>2423</v>
@@ -586,31 +586,31 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.111487016889057</v>
+        <v>-0.111487016889053</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0508392610660894</v>
+        <v>0.0508392610660899</v>
       </c>
       <c r="F3" t="n">
-        <v>0.894503004759629</v>
+        <v>0.894503004759632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.809667209199773</v>
+        <v>0.809667209199775</v>
       </c>
       <c r="H3" t="n">
-        <v>0.988227776094343</v>
+        <v>0.988227776094348</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.19293149725617</v>
+        <v>-2.19293149725608</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0290526466045278</v>
+        <v>0.0290526466045348</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0924170620343586</v>
+        <v>0.0924170620343397</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0807439695846397</v>
+        <v>0.0807439695846206</v>
       </c>
       <c r="M3" t="n">
         <v>2423</v>
@@ -633,31 +633,31 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0584972555588978</v>
+        <v>-0.0584972555588248</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0484996596559483</v>
+        <v>0.0484996596559506</v>
       </c>
       <c r="F4" t="n">
-        <v>0.943180828900348</v>
+        <v>0.943180828900417</v>
       </c>
       <c r="G4" t="n">
-        <v>0.857652229585642</v>
+        <v>0.857652229585701</v>
       </c>
       <c r="H4" t="n">
-        <v>1.03723869106588</v>
+        <v>1.03723869106596</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.20613744454851</v>
+        <v>-1.20613744454694</v>
       </c>
       <c r="J4" t="n">
-        <v>0.228620734327342</v>
+        <v>0.228620734327943</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0872876814348749</v>
+        <v>0.087287681434747</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0763241701007593</v>
+        <v>0.0763241701006299</v>
       </c>
       <c r="M4" t="n">
         <v>2423</v>
@@ -680,31 +680,31 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0730203162133202</v>
+        <v>0.0730203162133173</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0488867826533599</v>
+        <v>0.0488867826533592</v>
       </c>
       <c r="F5" t="n">
         <v>1.07575239190777</v>
       </c>
       <c r="G5" t="n">
-        <v>0.977460127938515</v>
+        <v>0.977460127938513</v>
       </c>
       <c r="H5" t="n">
         <v>1.18392881266261</v>
       </c>
       <c r="I5" t="n">
-        <v>1.49366172716015</v>
+        <v>1.49366172716011</v>
       </c>
       <c r="J5" t="n">
-        <v>0.136172773247098</v>
+        <v>0.136172773247108</v>
       </c>
       <c r="K5" t="n">
-        <v>0.111086874543286</v>
+        <v>0.111086874543308</v>
       </c>
       <c r="L5" t="n">
-        <v>0.100840037362229</v>
+        <v>0.100840037362251</v>
       </c>
       <c r="M5" t="n">
         <v>2423</v>
@@ -727,31 +727,31 @@
         <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>0.260288684692419</v>
+        <v>0.260288684692432</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0480807074195656</v>
+        <v>0.0480807074195663</v>
       </c>
       <c r="F6" t="n">
-        <v>1.29730454457646</v>
+        <v>1.29730454457648</v>
       </c>
       <c r="G6" t="n">
-        <v>1.18063271998623</v>
+        <v>1.18063271998624</v>
       </c>
       <c r="H6" t="n">
-        <v>1.42550604679021</v>
+        <v>1.42550604679023</v>
       </c>
       <c r="I6" t="n">
-        <v>5.413578515413</v>
+        <v>5.4135785154132</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000000117580538399076</v>
+        <v>0.000000117580538398956</v>
       </c>
       <c r="K6" t="n">
-        <v>0.194640721715912</v>
+        <v>0.194640721715906</v>
       </c>
       <c r="L6" t="n">
-        <v>0.185081561142807</v>
+        <v>0.185081561142801</v>
       </c>
       <c r="M6" t="n">
         <v>2423</v>
@@ -774,31 +774,31 @@
         <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0775610802677792</v>
+        <v>0.0775610802677857</v>
       </c>
       <c r="E7" t="n">
-        <v>0.049807521375075</v>
+        <v>0.0498075213750756</v>
       </c>
       <c r="F7" t="n">
-        <v>1.08064823672643</v>
+        <v>1.08064823672644</v>
       </c>
       <c r="G7" t="n">
-        <v>0.980138234524811</v>
+        <v>0.980138234524817</v>
       </c>
       <c r="H7" t="n">
-        <v>1.19146521419616</v>
+        <v>1.19146521419617</v>
       </c>
       <c r="I7" t="n">
-        <v>1.55721622209839</v>
+        <v>1.5572162220985</v>
       </c>
       <c r="J7" t="n">
-        <v>0.120260429366908</v>
+        <v>0.120260429366881</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0791848133676627</v>
+        <v>0.0791848133676402</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0693889071268931</v>
+        <v>0.0693889071268704</v>
       </c>
       <c r="M7" t="n">
         <v>2423</v>
@@ -821,31 +821,31 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0500555715091607</v>
+        <v>-0.0500555715091572</v>
       </c>
       <c r="E8" t="n">
-        <v>0.054192902886118</v>
+        <v>0.0541929028861182</v>
       </c>
       <c r="F8" t="n">
-        <v>0.951176564714799</v>
+        <v>0.951176564714802</v>
       </c>
       <c r="G8" t="n">
-        <v>0.855325089079118</v>
+        <v>0.855325089079121</v>
       </c>
       <c r="H8" t="n">
         <v>1.05776957652058</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.923655475964231</v>
+        <v>-0.923655475964164</v>
       </c>
       <c r="J8" t="n">
-        <v>0.356418040856715</v>
+        <v>0.356418040856749</v>
       </c>
       <c r="K8" t="n">
-        <v>0.080494722860788</v>
+        <v>0.0804947228607809</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0680689758724201</v>
+        <v>0.0680689758724129</v>
       </c>
       <c r="M8" t="n">
         <v>2423</v>
@@ -868,31 +868,31 @@
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0830062155148449</v>
+        <v>-0.083006215514838</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0509373764724485</v>
+        <v>0.050937376472449</v>
       </c>
       <c r="F9" t="n">
-        <v>0.920345426781684</v>
+        <v>0.920345426781691</v>
       </c>
       <c r="G9" t="n">
-        <v>0.832898516306576</v>
+        <v>0.832898516306581</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01697348238063</v>
+        <v>1.01697348238064</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.6295738269862</v>
+        <v>-1.62957382698605</v>
       </c>
       <c r="J9" t="n">
-        <v>0.104204000905207</v>
+        <v>0.104204000905239</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0905306695639366</v>
+        <v>0.0905306695639161</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0788333148316399</v>
+        <v>0.0788333148316192</v>
       </c>
       <c r="M9" t="n">
         <v>2423</v>
@@ -915,31 +915,31 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0864177809046919</v>
+        <v>0.0864177809047845</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0457073305290112</v>
+        <v>0.0457073305290092</v>
       </c>
       <c r="F10" t="n">
-        <v>1.09026172370003</v>
+        <v>1.09026172370013</v>
       </c>
       <c r="G10" t="n">
-        <v>0.996836427741529</v>
+        <v>0.996836427741625</v>
       </c>
       <c r="H10" t="n">
-        <v>1.19244300577826</v>
+        <v>1.19244300577836</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8906766136745</v>
+        <v>1.89067661367661</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05934114613765</v>
+        <v>0.0593411461373677</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0755275836723404</v>
+        <v>0.0755275836724602</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0669077942427119</v>
+        <v>0.0669077942428328</v>
       </c>
       <c r="M10" t="n">
         <v>2423</v>
@@ -962,31 +962,31 @@
         <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0717064057165484</v>
+        <v>0.0717064057165775</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0460638680117626</v>
+        <v>0.0460638680117616</v>
       </c>
       <c r="F11" t="n">
-        <v>1.07433987770994</v>
+        <v>1.07433987770997</v>
       </c>
       <c r="G11" t="n">
-        <v>0.981592746001752</v>
+        <v>0.981592746001783</v>
       </c>
       <c r="H11" t="n">
-        <v>1.17585034887345</v>
+        <v>1.17585034887348</v>
       </c>
       <c r="I11" t="n">
-        <v>1.55667356675818</v>
+        <v>1.55667356675884</v>
       </c>
       <c r="J11" t="n">
-        <v>0.120283672939951</v>
+        <v>0.120283672939793</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0730912837786012</v>
+        <v>0.0730912837786463</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0644688771160766</v>
+        <v>0.064468877116122</v>
       </c>
       <c r="M11" t="n">
         <v>2423</v>
@@ -1009,31 +1009,31 @@
         <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.086460122709428</v>
+        <v>-0.0864601227094892</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0548776368573679</v>
+        <v>0.0548776368573654</v>
       </c>
       <c r="F12" t="n">
-        <v>0.917172122394702</v>
+        <v>0.917172122394646</v>
       </c>
       <c r="G12" t="n">
-        <v>0.82364119163689</v>
+        <v>0.823641191636844</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0213242254509</v>
+        <v>1.02132422545083</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.57550739537393</v>
+        <v>-1.57550739537512</v>
       </c>
       <c r="J12" t="n">
-        <v>0.116094632082739</v>
+        <v>0.116094632082465</v>
       </c>
       <c r="K12" t="n">
-        <v>0.112470258118452</v>
+        <v>0.112470258118546</v>
       </c>
       <c r="L12" t="n">
-        <v>0.101744823171243</v>
+        <v>0.101744823171338</v>
       </c>
       <c r="M12" t="n">
         <v>2423</v>
@@ -1056,31 +1056,31 @@
         <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0460240325826467</v>
+        <v>-0.0460240325825749</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0508956364624139</v>
+        <v>0.0508956364624152</v>
       </c>
       <c r="F13" t="n">
-        <v>0.955019010341624</v>
+        <v>0.955019010341693</v>
       </c>
       <c r="G13" t="n">
-        <v>0.864348288212152</v>
+        <v>0.864348288212212</v>
       </c>
       <c r="H13" t="n">
-        <v>1.05520115276729</v>
+        <v>1.05520115276737</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.904282484346868</v>
+        <v>-0.904282484345436</v>
       </c>
       <c r="J13" t="n">
-        <v>0.36656880770561</v>
+        <v>0.366568807706368</v>
       </c>
       <c r="K13" t="n">
-        <v>0.098094224564475</v>
+        <v>0.0980942245643922</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0861087657547005</v>
+        <v>0.0861087657546166</v>
       </c>
       <c r="M13" t="n">
         <v>2423</v>
@@ -1103,31 +1103,31 @@
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>0.067646068177967</v>
+        <v>0.0676460681779139</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0488807902383356</v>
+        <v>0.0488807902383361</v>
       </c>
       <c r="F14" t="n">
-        <v>1.06998653916811</v>
+        <v>1.06998653916806</v>
       </c>
       <c r="G14" t="n">
-        <v>0.972232524213287</v>
+        <v>0.972232524213234</v>
       </c>
       <c r="H14" t="n">
-        <v>1.17756932162639</v>
+        <v>1.17756932162633</v>
       </c>
       <c r="I14" t="n">
-        <v>1.3838988250422</v>
+        <v>1.3838988250411</v>
       </c>
       <c r="J14" t="n">
-        <v>0.167107325648966</v>
+        <v>0.167107325649303</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0720009721850672</v>
+        <v>0.0720009721851013</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0633684230891145</v>
+        <v>0.0633684230891487</v>
       </c>
       <c r="M14" t="n">
         <v>2423</v>
@@ -1150,31 +1150,31 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225301971269091</v>
+        <v>0.225301971269066</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0437448076737234</v>
+        <v>0.0437448076737289</v>
       </c>
       <c r="F15" t="n">
-        <v>1.25270093877509</v>
+        <v>1.25270093877506</v>
       </c>
       <c r="G15" t="n">
-        <v>1.1497702596826</v>
+        <v>1.14977025968256</v>
       </c>
       <c r="H15" t="n">
-        <v>1.36484626280139</v>
+        <v>1.36484626280137</v>
       </c>
       <c r="I15" t="n">
-        <v>5.15037059825562</v>
+        <v>5.15037059825439</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000000398173009494782</v>
+        <v>0.000000398173009497241</v>
       </c>
       <c r="K15" t="n">
-        <v>0.122428252219265</v>
+        <v>0.122428252219187</v>
       </c>
       <c r="L15" t="n">
-        <v>0.114188141911464</v>
+        <v>0.114188141911386</v>
       </c>
       <c r="M15" t="n">
         <v>2423</v>
@@ -1197,31 +1197,31 @@
         <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0877142897262515</v>
+        <v>0.0877142897262957</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0483360067430693</v>
+        <v>0.0483360067430673</v>
       </c>
       <c r="F16" t="n">
-        <v>1.09167617436837</v>
+        <v>1.09167617436842</v>
       </c>
       <c r="G16" t="n">
-        <v>0.993000329126727</v>
+        <v>0.993000329126775</v>
       </c>
       <c r="H16" t="n">
-        <v>1.20015757772369</v>
+        <v>1.20015757772374</v>
       </c>
       <c r="I16" t="n">
-        <v>1.81467803479294</v>
+        <v>1.81467803479393</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0703434958720611</v>
+        <v>0.0703434958719084</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0786460862156651</v>
+        <v>0.0786460862157472</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0691720099813788</v>
+        <v>0.0691720099814618</v>
       </c>
       <c r="M16" t="n">
         <v>2423</v>
@@ -1244,31 +1244,31 @@
         <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>0.101528433499465</v>
+        <v>0.101528433499401</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0478604221644982</v>
+        <v>0.0478604221644995</v>
       </c>
       <c r="F17" t="n">
-        <v>1.10686138988725</v>
+        <v>1.10686138988718</v>
       </c>
       <c r="G17" t="n">
-        <v>1.00775189763727</v>
+        <v>1.0077518976372</v>
       </c>
       <c r="H17" t="n">
-        <v>1.21571801481649</v>
+        <v>1.21571801481641</v>
       </c>
       <c r="I17" t="n">
-        <v>2.12134429467646</v>
+        <v>2.12134429467506</v>
       </c>
       <c r="J17" t="n">
-        <v>0.034475191384051</v>
+        <v>0.0344751913841698</v>
       </c>
       <c r="K17" t="n">
-        <v>0.077640583080911</v>
+        <v>0.077640583080949</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0688978397925782</v>
+        <v>0.0688978397926167</v>
       </c>
       <c r="M17" t="n">
         <v>2423</v>
@@ -1291,31 +1291,31 @@
         <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0361216943022326</v>
+        <v>0.0361216943022206</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04759138748528</v>
+        <v>0.0475913874852804</v>
       </c>
       <c r="F18" t="n">
-        <v>1.03678200927731</v>
+        <v>1.0367820092773</v>
       </c>
       <c r="G18" t="n">
-        <v>0.94444537818977</v>
+        <v>0.944445378189758</v>
       </c>
       <c r="H18" t="n">
-        <v>1.13814621743546</v>
+        <v>1.13814621743545</v>
       </c>
       <c r="I18" t="n">
-        <v>0.758996453158778</v>
+        <v>0.758996453158519</v>
       </c>
       <c r="J18" t="n">
-        <v>0.448281435133178</v>
+        <v>0.448281435133332</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0699587075362856</v>
+        <v>0.0699587075362683</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0610800317132429</v>
+        <v>0.0610800317132255</v>
       </c>
       <c r="M18" t="n">
         <v>2423</v>
@@ -1338,31 +1338,31 @@
         <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>0.106331171209426</v>
+        <v>0.106331171209422</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0473026461663405</v>
+        <v>0.0473026461663414</v>
       </c>
       <c r="F19" t="n">
         <v>1.11219014087795</v>
       </c>
       <c r="G19" t="n">
-        <v>1.01371113182235</v>
+        <v>1.01371113182234</v>
       </c>
       <c r="H19" t="n">
         <v>1.22023609156035</v>
       </c>
       <c r="I19" t="n">
-        <v>2.24789054793068</v>
+        <v>2.24789054793054</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0251514649059856</v>
+        <v>0.0251514649059942</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0855347106954111</v>
+        <v>0.0855347106953807</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0759841593710812</v>
+        <v>0.0759841593710504</v>
       </c>
       <c r="M19" t="n">
         <v>2423</v>
@@ -1385,31 +1385,31 @@
         <v>35</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0492612197178312</v>
+        <v>0.0492612197178664</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0466212234825692</v>
+        <v>0.0466212234825686</v>
       </c>
       <c r="F20" t="n">
-        <v>1.05049472483811</v>
+        <v>1.05049472483815</v>
       </c>
       <c r="G20" t="n">
-        <v>0.958758195422996</v>
+        <v>0.958758195423031</v>
       </c>
       <c r="H20" t="n">
-        <v>1.15100884892653</v>
+        <v>1.15100884892657</v>
       </c>
       <c r="I20" t="n">
-        <v>1.05662648978419</v>
+        <v>1.05662648978496</v>
       </c>
       <c r="J20" t="n">
-        <v>0.29127534684725</v>
+        <v>0.2912753468469</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0702816964674079</v>
+        <v>0.0702816964674522</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0616331541089652</v>
+        <v>0.0616331541090099</v>
       </c>
       <c r="M20" t="n">
         <v>2423</v>
@@ -1432,31 +1432,31 @@
         <v>36</v>
       </c>
       <c r="D21" t="n">
-        <v>0.133653907709602</v>
+        <v>0.133653907709593</v>
       </c>
       <c r="E21" t="n">
         <v>0.0512450684146645</v>
       </c>
       <c r="F21" t="n">
-        <v>1.1429971686747</v>
+        <v>1.14299716867469</v>
       </c>
       <c r="G21" t="n">
-        <v>1.03377130194188</v>
+        <v>1.03377130194187</v>
       </c>
       <c r="H21" t="n">
-        <v>1.26376358595396</v>
+        <v>1.26376358595395</v>
       </c>
       <c r="I21" t="n">
-        <v>2.60813209630442</v>
+        <v>2.60813209630424</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00947456285627167</v>
+        <v>0.00947456285627656</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0570766537809</v>
+        <v>0.0570766537809079</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0468274869741706</v>
+        <v>0.0468274869741786</v>
       </c>
       <c r="M21" t="n">
         <v>2423</v>
@@ -1479,31 +1479,31 @@
         <v>37</v>
       </c>
       <c r="D22" t="n">
-        <v>0.139435266344963</v>
+        <v>0.139435266344956</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0469464625340281</v>
+        <v>0.0469464625340251</v>
       </c>
       <c r="F22" t="n">
-        <v>1.149624383921</v>
+        <v>1.14962438392099</v>
       </c>
       <c r="G22" t="n">
         <v>1.04856252226076</v>
       </c>
       <c r="H22" t="n">
-        <v>1.26042672329755</v>
+        <v>1.26042672329753</v>
       </c>
       <c r="I22" t="n">
-        <v>2.97009101045464</v>
+        <v>2.97009101045469</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00314385551203922</v>
+        <v>0.00314385551203876</v>
       </c>
       <c r="K22" t="n">
-        <v>0.086606017176427</v>
+        <v>0.0866060171764676</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0781093289641147</v>
+        <v>0.0781093289641558</v>
       </c>
       <c r="M22" t="n">
         <v>2423</v>
@@ -1526,31 +1526,31 @@
         <v>38</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0577570497766065</v>
+        <v>0.0577570497766077</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0509526574797732</v>
+        <v>0.0509526574797856</v>
       </c>
       <c r="F23" t="n">
         <v>1.05945756898755</v>
       </c>
       <c r="G23" t="n">
-        <v>0.958764158365515</v>
+        <v>0.958764158365493</v>
       </c>
       <c r="H23" t="n">
-        <v>1.17072622155437</v>
+        <v>1.1707262215544</v>
       </c>
       <c r="I23" t="n">
-        <v>1.1335434231185</v>
+        <v>1.13354342311825</v>
       </c>
       <c r="J23" t="n">
-        <v>0.25768965056261</v>
+        <v>0.257689650562715</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0784528075589433</v>
+        <v>0.0784528075588196</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0689030957201759</v>
+        <v>0.0689030957200508</v>
       </c>
       <c r="M23" t="n">
         <v>2423</v>
@@ -1573,31 +1573,31 @@
         <v>39</v>
       </c>
       <c r="D24" t="n">
-        <v>0.154487812062372</v>
+        <v>0.154487812062507</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0436870787706231</v>
+        <v>0.0436870787706201</v>
       </c>
       <c r="F24" t="n">
-        <v>1.16706005391567</v>
+        <v>1.16706005391583</v>
       </c>
       <c r="G24" t="n">
-        <v>1.07128743735163</v>
+        <v>1.07128743735178</v>
       </c>
       <c r="H24" t="n">
-        <v>1.27139469945879</v>
+        <v>1.27139469945895</v>
       </c>
       <c r="I24" t="n">
-        <v>3.53623580266155</v>
+        <v>3.53623580266486</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000450091145032316</v>
+        <v>0.000450091145026836</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0942268551895371</v>
+        <v>0.0942268551896857</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0857814179418872</v>
+        <v>0.0857814179420371</v>
       </c>
       <c r="M24" t="n">
         <v>2423</v>
@@ -1620,31 +1620,31 @@
         <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>0.126150252966823</v>
+        <v>0.126150252966817</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0447254212739728</v>
+        <v>0.0447254212739709</v>
       </c>
       <c r="F25" t="n">
-        <v>1.13445261034842</v>
+        <v>1.13445261034841</v>
       </c>
       <c r="G25" t="n">
         <v>1.03923870145932</v>
       </c>
       <c r="H25" t="n">
-        <v>1.23838991303838</v>
+        <v>1.23838991303837</v>
       </c>
       <c r="I25" t="n">
-        <v>2.82054923963867</v>
+        <v>2.82054923963864</v>
       </c>
       <c r="J25" t="n">
-        <v>0.00501602032298738</v>
+        <v>0.00501602032298789</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0848000191668071</v>
+        <v>0.0848000191668469</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07628653097301</v>
+        <v>0.0762865309730502</v>
       </c>
       <c r="M25" t="n">
         <v>2423</v>
@@ -1667,31 +1667,31 @@
         <v>41</v>
       </c>
       <c r="D26" t="n">
-        <v>0.207732864773838</v>
+        <v>0.20773286477382</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0478264383124109</v>
+        <v>0.0478264383124115</v>
       </c>
       <c r="F26" t="n">
-        <v>1.2308843130669</v>
+        <v>1.23088431306687</v>
       </c>
       <c r="G26" t="n">
-        <v>1.12074433084403</v>
+        <v>1.12074433084401</v>
       </c>
       <c r="H26" t="n">
-        <v>1.35184818736773</v>
+        <v>1.35184818736771</v>
       </c>
       <c r="I26" t="n">
-        <v>4.34347344489442</v>
+        <v>4.34347344489398</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0000182218723964944</v>
+        <v>0.0000182218723965291</v>
       </c>
       <c r="K26" t="n">
-        <v>0.138757554047933</v>
+        <v>0.138757554047904</v>
       </c>
       <c r="L26" t="n">
-        <v>0.129267279161409</v>
+        <v>0.12926727916138</v>
       </c>
       <c r="M26" t="n">
         <v>2423</v>
@@ -1714,31 +1714,31 @@
         <v>42</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0489563010265174</v>
+        <v>0.0489563010266177</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0461651178853359</v>
+        <v>0.0461651178853274</v>
       </c>
       <c r="F27" t="n">
-        <v>1.05017445819151</v>
+        <v>1.05017445819161</v>
       </c>
       <c r="G27" t="n">
-        <v>0.959323116654845</v>
+        <v>0.959323116654957</v>
       </c>
       <c r="H27" t="n">
-        <v>1.14962974777832</v>
+        <v>1.14962974777842</v>
       </c>
       <c r="I27" t="n">
-        <v>1.06046086892086</v>
+        <v>1.06046086892323</v>
       </c>
       <c r="J27" t="n">
-        <v>0.289544423343006</v>
+        <v>0.289544423341931</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0763337775325165</v>
+        <v>0.0763337775326115</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0675369563661595</v>
+        <v>0.0675369563662555</v>
       </c>
       <c r="M27" t="n">
         <v>2423</v>
@@ -1761,31 +1761,31 @@
         <v>43</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0361660105310616</v>
+        <v>0.0361660105311727</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0461565932394558</v>
+        <v>0.0461565932394523</v>
       </c>
       <c r="F28" t="n">
-        <v>1.03682795656417</v>
+        <v>1.03682795656429</v>
       </c>
       <c r="G28" t="n">
-        <v>0.947147055494785</v>
+        <v>0.947147055494897</v>
       </c>
       <c r="H28" t="n">
-        <v>1.13500032046392</v>
+        <v>1.13500032046404</v>
       </c>
       <c r="I28" t="n">
-        <v>0.783550257780853</v>
+        <v>0.783550257783321</v>
       </c>
       <c r="J28" t="n">
-        <v>0.433740487196118</v>
+        <v>0.43374048719467</v>
       </c>
       <c r="K28" t="n">
-        <v>0.11129583623484</v>
+        <v>0.111295836234897</v>
       </c>
       <c r="L28" t="n">
-        <v>0.102931561752344</v>
+        <v>0.102931561752402</v>
       </c>
       <c r="M28" t="n">
         <v>2423</v>
@@ -1808,31 +1808,31 @@
         <v>44</v>
       </c>
       <c r="D29" t="n">
-        <v>0.183850343002322</v>
+        <v>0.183850343002341</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0449675012864843</v>
+        <v>0.0449675012864828</v>
       </c>
       <c r="F29" t="n">
-        <v>1.20183594647729</v>
+        <v>1.20183594647731</v>
       </c>
       <c r="G29" t="n">
-        <v>1.10044433646311</v>
+        <v>1.10044433646313</v>
       </c>
       <c r="H29" t="n">
-        <v>1.31256947251632</v>
+        <v>1.31256947251635</v>
       </c>
       <c r="I29" t="n">
-        <v>4.08851587796766</v>
+        <v>4.08851587796821</v>
       </c>
       <c r="J29" t="n">
-        <v>0.000051928153720986</v>
+        <v>0.000051928153720867</v>
       </c>
       <c r="K29" t="n">
-        <v>0.143692049001112</v>
+        <v>0.143692049001169</v>
       </c>
       <c r="L29" t="n">
-        <v>0.135632680050535</v>
+        <v>0.135632680050591</v>
       </c>
       <c r="M29" t="n">
         <v>2423</v>
@@ -1855,31 +1855,31 @@
         <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>0.113628476830784</v>
+        <v>0.113628476830746</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0442593273644675</v>
+        <v>0.0442593273644671</v>
       </c>
       <c r="F30" t="n">
-        <v>1.12033581684164</v>
+        <v>1.1203358168416</v>
       </c>
       <c r="G30" t="n">
-        <v>1.02724472653839</v>
+        <v>1.02724472653835</v>
       </c>
       <c r="H30" t="n">
-        <v>1.22186301868673</v>
+        <v>1.22186301868669</v>
       </c>
       <c r="I30" t="n">
-        <v>2.56733401967622</v>
+        <v>2.56733401967539</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0105895063655485</v>
+        <v>0.0105895063655736</v>
       </c>
       <c r="K30" t="n">
-        <v>0.12360380161149</v>
+        <v>0.12360380161153</v>
       </c>
       <c r="L30" t="n">
-        <v>0.115355366803128</v>
+        <v>0.115355366803168</v>
       </c>
       <c r="M30" t="n">
         <v>2423</v>
@@ -1902,31 +1902,31 @@
         <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0674383666898253</v>
+        <v>-0.0674383666898505</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0486980204129574</v>
+        <v>0.0486980204129561</v>
       </c>
       <c r="F31" t="n">
-        <v>0.934785332754956</v>
+        <v>0.934785332754933</v>
       </c>
       <c r="G31" t="n">
-        <v>0.849687633788512</v>
+        <v>0.849687633788493</v>
       </c>
       <c r="H31" t="n">
-        <v>1.0284057147421</v>
+        <v>1.02840571474207</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.38482768124762</v>
+        <v>-1.38482768124818</v>
       </c>
       <c r="J31" t="n">
-        <v>0.16687132593791</v>
+        <v>0.166871325937741</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0396468362638875</v>
+        <v>0.0396468362639393</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0301147949364818</v>
+        <v>0.0301147949365341</v>
       </c>
       <c r="M31" t="n">
         <v>2423</v>
@@ -1949,31 +1949,31 @@
         <v>18</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0398299899896584</v>
+        <v>-0.0398299899896177</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0508469672342795</v>
+        <v>0.050846967234283</v>
       </c>
       <c r="F32" t="n">
-        <v>0.960952796860639</v>
+        <v>0.960952796860678</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8698016813683</v>
+        <v>0.86980168136833</v>
       </c>
       <c r="H32" t="n">
-        <v>1.06165611952097</v>
+        <v>1.06165611952102</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.783330691211928</v>
+        <v>-0.783330691211074</v>
       </c>
       <c r="J32" t="n">
-        <v>0.433930028986129</v>
+        <v>0.43393002898663</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0533094337969595</v>
+        <v>0.053309433796828</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0431572561433076</v>
+        <v>0.0431572561431747</v>
       </c>
       <c r="M32" t="n">
         <v>2423</v>
@@ -1996,31 +1996,31 @@
         <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0757672471643261</v>
+        <v>-0.0757672471644102</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0489928271204499</v>
+        <v>0.0489928271204431</v>
       </c>
       <c r="F33" t="n">
-        <v>0.927031950766172</v>
+        <v>0.927031950766093</v>
       </c>
       <c r="G33" t="n">
-        <v>0.842153322302901</v>
+        <v>0.842153322302842</v>
       </c>
       <c r="H33" t="n">
-        <v>1.020465294124</v>
+        <v>1.0204652941239</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.54649673467609</v>
+        <v>-1.54649673467802</v>
       </c>
       <c r="J33" t="n">
-        <v>0.122783407105695</v>
+        <v>0.12278340710523</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0540137395216941</v>
+        <v>0.0540137395219203</v>
       </c>
       <c r="L33" t="n">
-        <v>0.044458322749186</v>
+        <v>0.0444583227494143</v>
       </c>
       <c r="M33" t="n">
         <v>2423</v>
@@ -2043,31 +2043,31 @@
         <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0696653033964753</v>
+        <v>0.0696653033963935</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0473697899634669</v>
+        <v>0.0473697899634723</v>
       </c>
       <c r="F34" t="n">
-        <v>1.07214927647415</v>
+        <v>1.07214927647407</v>
       </c>
       <c r="G34" t="n">
-        <v>0.977087095623145</v>
+        <v>0.977087095623055</v>
       </c>
       <c r="H34" t="n">
-        <v>1.17646019090135</v>
+        <v>1.17646019090127</v>
       </c>
       <c r="I34" t="n">
-        <v>1.47066945937914</v>
+        <v>1.47066945937725</v>
       </c>
       <c r="J34" t="n">
-        <v>0.142129293236582</v>
+        <v>0.142129293237094</v>
       </c>
       <c r="K34" t="n">
-        <v>0.035188735755972</v>
+        <v>0.0351887357557356</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0260000570488861</v>
+        <v>0.0260000570486474</v>
       </c>
       <c r="M34" t="n">
         <v>2423</v>
@@ -2090,31 +2090,31 @@
         <v>21</v>
       </c>
       <c r="D35" t="n">
-        <v>0.31924831414224</v>
+        <v>0.319248314142048</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0471857189536557</v>
+        <v>0.047185718953661</v>
       </c>
       <c r="F35" t="n">
-        <v>1.37609298583408</v>
+        <v>1.37609298583382</v>
       </c>
       <c r="G35" t="n">
-        <v>1.25453414565737</v>
+        <v>1.25453414565711</v>
       </c>
       <c r="H35" t="n">
-        <v>1.50943034290192</v>
+        <v>1.50943034290164</v>
       </c>
       <c r="I35" t="n">
-        <v>6.76578255500982</v>
+        <v>6.765782555005</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0000000000463178784677964</v>
+        <v>0.0000000000463178784691829</v>
       </c>
       <c r="K35" t="n">
-        <v>0.146700801088815</v>
+        <v>0.146700801088541</v>
       </c>
       <c r="L35" t="n">
-        <v>0.138314568175683</v>
+        <v>0.138314568175406</v>
       </c>
       <c r="M35" t="n">
         <v>2423</v>
@@ -2137,31 +2137,31 @@
         <v>22</v>
       </c>
       <c r="D36" t="n">
-        <v>0.26923761354367</v>
+        <v>0.269237613543672</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0400452282930544</v>
+        <v>0.0400452282930585</v>
       </c>
       <c r="F36" t="n">
         <v>1.30896613217836</v>
       </c>
       <c r="G36" t="n">
-        <v>1.21015562384847</v>
+        <v>1.21015562384846</v>
       </c>
       <c r="H36" t="n">
-        <v>1.41584462479391</v>
+        <v>1.41584462479393</v>
       </c>
       <c r="I36" t="n">
-        <v>6.72333821081918</v>
+        <v>6.72333821081854</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0000000000490788621262979</v>
+        <v>0.0000000000490788621264946</v>
       </c>
       <c r="K36" t="n">
-        <v>0.168152272994539</v>
+        <v>0.168152272994373</v>
       </c>
       <c r="L36" t="n">
-        <v>0.161430271160151</v>
+        <v>0.161430271159984</v>
       </c>
       <c r="M36" t="n">
         <v>2423</v>
@@ -2184,31 +2184,31 @@
         <v>23</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.117133877468976</v>
+        <v>-0.11713387746908</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0536071044966015</v>
+        <v>0.0536071044965946</v>
       </c>
       <c r="F37" t="n">
-        <v>0.889466105721052</v>
+        <v>0.88946610572096</v>
       </c>
       <c r="G37" t="n">
-        <v>0.800752152587495</v>
+        <v>0.800752152587422</v>
       </c>
       <c r="H37" t="n">
-        <v>0.988008525072468</v>
+        <v>0.988008525072352</v>
       </c>
       <c r="I37" t="n">
-        <v>-2.18504391477443</v>
+        <v>-2.18504391477664</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0295426094004368</v>
+        <v>0.0295426094002733</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0584505304284379</v>
+        <v>0.0584505304286683</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0477814146259272</v>
+        <v>0.0477814146261603</v>
       </c>
       <c r="M37" t="n">
         <v>2423</v>
@@ -2231,31 +2231,31 @@
         <v>24</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0998461633839209</v>
+        <v>-0.0998461633839011</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0506635030807565</v>
+        <v>0.0506635030807577</v>
       </c>
       <c r="F38" t="n">
-        <v>0.904976625869808</v>
+        <v>0.904976625869826</v>
       </c>
       <c r="G38" t="n">
-        <v>0.819429732015407</v>
+        <v>0.819429732015421</v>
       </c>
       <c r="H38" t="n">
-        <v>0.999454451520079</v>
+        <v>0.999454451520101</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.97077101488163</v>
+        <v>-1.97077101488119</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0494871223652071</v>
+        <v>0.0494871223652576</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0555848148089918</v>
+        <v>0.0555848148089476</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0454841176411734</v>
+        <v>0.0454841176411288</v>
       </c>
       <c r="M38" t="n">
         <v>2423</v>
@@ -2278,31 +2278,31 @@
         <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.400238070574842</v>
+        <v>0.400238070574809</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0378901824680492</v>
+        <v>0.0378901824680418</v>
       </c>
       <c r="F39" t="n">
-        <v>1.49217989948448</v>
+        <v>1.49217989948443</v>
       </c>
       <c r="G39" t="n">
-        <v>1.38537839669954</v>
+        <v>1.38537839669952</v>
       </c>
       <c r="H39" t="n">
-        <v>1.60721493689381</v>
+        <v>1.60721493689374</v>
       </c>
       <c r="I39" t="n">
-        <v>10.5631074992141</v>
+        <v>10.5631074992153</v>
       </c>
       <c r="J39" t="n">
-        <v>0.00000000000000000000000714481069090689</v>
+        <v>0.00000000000000000000000714481069083069</v>
       </c>
       <c r="K39" t="n">
-        <v>0.22452055264948</v>
+        <v>0.224520552649753</v>
       </c>
       <c r="L39" t="n">
-        <v>0.218880702123294</v>
+        <v>0.218880702123569</v>
       </c>
       <c r="M39" t="n">
         <v>2423</v>
@@ -2325,31 +2325,31 @@
         <v>26</v>
       </c>
       <c r="D40" t="n">
-        <v>0.350079018054842</v>
+        <v>0.350079018054848</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0388158875074974</v>
+        <v>0.0388158875074986</v>
       </c>
       <c r="F40" t="n">
-        <v>1.41917968498098</v>
+        <v>1.41917968498099</v>
       </c>
       <c r="G40" t="n">
         <v>1.31521464249294</v>
       </c>
       <c r="H40" t="n">
-        <v>1.53136295262431</v>
+        <v>1.53136295262432</v>
       </c>
       <c r="I40" t="n">
-        <v>9.01896209347845</v>
+        <v>9.01896209347831</v>
       </c>
       <c r="J40" t="n">
-        <v>0.00000000000000000313590335494025</v>
+        <v>0.0000000000000000031359033549438</v>
       </c>
       <c r="K40" t="n">
-        <v>0.187347129180143</v>
+        <v>0.187347129180092</v>
       </c>
       <c r="L40" t="n">
-        <v>0.181447652803955</v>
+        <v>0.181447652803904</v>
       </c>
       <c r="M40" t="n">
         <v>2423</v>
@@ -2372,31 +2372,31 @@
         <v>27</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0623923766390686</v>
+        <v>-0.06239237663909</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0512826007003714</v>
+        <v>0.0512826007003706</v>
       </c>
       <c r="F41" t="n">
-        <v>0.939514171045305</v>
+        <v>0.939514171045285</v>
       </c>
       <c r="G41" t="n">
-        <v>0.849670820920053</v>
+        <v>0.849670820920036</v>
       </c>
       <c r="H41" t="n">
-        <v>1.03885746792992</v>
+        <v>1.0388574679299</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.216638309816</v>
+        <v>-1.21663830981643</v>
       </c>
       <c r="J41" t="n">
-        <v>0.22445924853074</v>
+        <v>0.224459248530575</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0727649193136085</v>
+        <v>0.0727649193136345</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0634925685067446</v>
+        <v>0.0634925685067709</v>
       </c>
       <c r="M41" t="n">
         <v>2423</v>
@@ -2419,10 +2419,10 @@
         <v>28</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00971282443644342</v>
+        <v>0.0097128244364448</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0507885175229686</v>
+        <v>0.0507885175229694</v>
       </c>
       <c r="F42" t="n">
         <v>1.00976014700355</v>
@@ -2434,16 +2434,16 @@
         <v>1.11545045493073</v>
       </c>
       <c r="I42" t="n">
-        <v>0.191240558105499</v>
+        <v>0.191240558105523</v>
       </c>
       <c r="J42" t="n">
-        <v>0.848443463196241</v>
+        <v>0.848443463196222</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0393167609781006</v>
+        <v>0.0393167609780768</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0287887254819703</v>
+        <v>0.0287887254819462</v>
       </c>
       <c r="M42" t="n">
         <v>2423</v>
@@ -2466,31 +2466,31 @@
         <v>29</v>
       </c>
       <c r="D43" t="n">
-        <v>0.342094808162515</v>
+        <v>0.342094808162583</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0434371732198482</v>
+        <v>0.0434371732198493</v>
       </c>
       <c r="F43" t="n">
-        <v>1.40789377100826</v>
+        <v>1.40789377100836</v>
       </c>
       <c r="G43" t="n">
-        <v>1.29299075361149</v>
+        <v>1.29299075361157</v>
       </c>
       <c r="H43" t="n">
-        <v>1.53300776893216</v>
+        <v>1.53300776893227</v>
       </c>
       <c r="I43" t="n">
-        <v>7.87562317720524</v>
+        <v>7.87562317720662</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0000000000000181486145270122</v>
+        <v>0.0000000000000181486145268328</v>
       </c>
       <c r="K43" t="n">
-        <v>0.161740695473969</v>
+        <v>0.16174069547395</v>
       </c>
       <c r="L43" t="n">
-        <v>0.155655328471965</v>
+        <v>0.155655328471946</v>
       </c>
       <c r="M43" t="n">
         <v>2423</v>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.00000000000000000625946567615863</v>
+        <v>0.0000000000000000262678801573755</v>
       </c>
       <c r="F44" t="n">
         <v>2.71828182845905</v>
@@ -2528,7 +2528,7 @@
         <v>2.71828182845905</v>
       </c>
       <c r="I44" t="n">
-        <v>159758045132965696</v>
+        <v>38069307230306592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2560,31 +2560,31 @@
         <v>31</v>
       </c>
       <c r="D45" t="n">
-        <v>0.332994833796623</v>
+        <v>0.332994833796642</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0385655545510786</v>
+        <v>0.0385655545510825</v>
       </c>
       <c r="F45" t="n">
-        <v>1.39514009087374</v>
+        <v>1.39514009087376</v>
       </c>
       <c r="G45" t="n">
-        <v>1.29357065837463</v>
+        <v>1.29357065837465</v>
       </c>
       <c r="H45" t="n">
-        <v>1.50468461893597</v>
+        <v>1.50468461893601</v>
       </c>
       <c r="I45" t="n">
-        <v>8.63451433987769</v>
+        <v>8.6345143398773</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0000000000000000764603624182934</v>
+        <v>0.0000000000000000764603624185231</v>
       </c>
       <c r="K45" t="n">
-        <v>0.205089476842</v>
+        <v>0.205089476841843</v>
       </c>
       <c r="L45" t="n">
-        <v>0.198830338864378</v>
+        <v>0.19883033886422</v>
       </c>
       <c r="M45" t="n">
         <v>2423</v>
@@ -2607,31 +2607,31 @@
         <v>32</v>
       </c>
       <c r="D46" t="n">
-        <v>0.336096010752278</v>
+        <v>0.33609601075241</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0424382052162879</v>
+        <v>0.0424382052162917</v>
       </c>
       <c r="F46" t="n">
-        <v>1.3994733828532</v>
+        <v>1.39947338285338</v>
       </c>
       <c r="G46" t="n">
-        <v>1.28777655247443</v>
+        <v>1.28777655247459</v>
       </c>
       <c r="H46" t="n">
-        <v>1.52085837061664</v>
+        <v>1.52085837061685</v>
       </c>
       <c r="I46" t="n">
-        <v>7.91965656981373</v>
+        <v>7.91965656981614</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0000000000000134889162807383</v>
+        <v>0.0000000000000134889162805037</v>
       </c>
       <c r="K46" t="n">
-        <v>0.165283385450371</v>
+        <v>0.165283385450294</v>
       </c>
       <c r="L46" t="n">
-        <v>0.159145763284565</v>
+        <v>0.159145763284487</v>
       </c>
       <c r="M46" t="n">
         <v>2423</v>
@@ -2654,31 +2654,31 @@
         <v>33</v>
       </c>
       <c r="D47" t="n">
-        <v>0.290516693832345</v>
+        <v>0.290516693832406</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0415315397126675</v>
+        <v>0.041531539712664</v>
       </c>
       <c r="F47" t="n">
-        <v>1.33711819029135</v>
+        <v>1.33711819029143</v>
       </c>
       <c r="G47" t="n">
-        <v>1.23258658500867</v>
+        <v>1.23258658500875</v>
       </c>
       <c r="H47" t="n">
-        <v>1.45051477644909</v>
+        <v>1.45051477644917</v>
       </c>
       <c r="I47" t="n">
-        <v>6.99508604405858</v>
+        <v>6.99508604406063</v>
       </c>
       <c r="J47" t="n">
-        <v>0.00000000000785958314673552</v>
+        <v>0.00000000000785958314663052</v>
       </c>
       <c r="K47" t="n">
-        <v>0.149444524774562</v>
+        <v>0.149444524774698</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1431557597082</v>
+        <v>0.143155759708338</v>
       </c>
       <c r="M47" t="n">
         <v>2423</v>
@@ -2701,31 +2701,31 @@
         <v>34</v>
       </c>
       <c r="D48" t="n">
-        <v>0.417365973788055</v>
+        <v>0.417365973788033</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0389271829984958</v>
+        <v>0.0389271829984913</v>
       </c>
       <c r="F48" t="n">
-        <v>1.51795794411117</v>
+        <v>1.51795794411114</v>
       </c>
       <c r="G48" t="n">
-        <v>1.40644985377254</v>
+        <v>1.40644985377252</v>
       </c>
       <c r="H48" t="n">
-        <v>1.63830677212532</v>
+        <v>1.63830677212527</v>
       </c>
       <c r="I48" t="n">
-        <v>10.7217101685519</v>
+        <v>10.7217101685526</v>
       </c>
       <c r="J48" t="n">
-        <v>0.00000000000000000000000302184380956411</v>
+        <v>0.00000000000000000000000302184380954636</v>
       </c>
       <c r="K48" t="n">
-        <v>0.247631623008968</v>
+        <v>0.247631623009144</v>
       </c>
       <c r="L48" t="n">
-        <v>0.24151480693587</v>
+        <v>0.241514806936047</v>
       </c>
       <c r="M48" t="n">
         <v>2423</v>
@@ -2748,31 +2748,31 @@
         <v>35</v>
       </c>
       <c r="D49" t="n">
-        <v>0.326133290576298</v>
+        <v>0.326133290576296</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0394261552804875</v>
+        <v>0.039426155280489</v>
       </c>
       <c r="F49" t="n">
-        <v>1.38560004399317</v>
+        <v>1.38560004399316</v>
       </c>
       <c r="G49" t="n">
-        <v>1.28255993027022</v>
+        <v>1.28255993027021</v>
       </c>
       <c r="H49" t="n">
         <v>1.49691834011169</v>
       </c>
       <c r="I49" t="n">
-        <v>8.27200340119661</v>
+        <v>8.27200340119623</v>
       </c>
       <c r="J49" t="n">
-        <v>0.000000000000000994514720880578</v>
+        <v>0.00000000000000099451472088334</v>
       </c>
       <c r="K49" t="n">
-        <v>0.170402524363432</v>
+        <v>0.170402524363376</v>
       </c>
       <c r="L49" t="n">
-        <v>0.164380038151915</v>
+        <v>0.164380038151858</v>
       </c>
       <c r="M49" t="n">
         <v>2423</v>
@@ -2795,31 +2795,31 @@
         <v>36</v>
       </c>
       <c r="D50" t="n">
-        <v>0.267944051613928</v>
+        <v>0.26794405161391</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0440612685896102</v>
+        <v>0.0440612685896115</v>
       </c>
       <c r="F50" t="n">
-        <v>1.30727399809852</v>
+        <v>1.3072739980985</v>
       </c>
       <c r="G50" t="n">
-        <v>1.1991152164058</v>
+        <v>1.19911521640577</v>
       </c>
       <c r="H50" t="n">
-        <v>1.42518857464498</v>
+        <v>1.42518857464496</v>
       </c>
       <c r="I50" t="n">
-        <v>6.08116970279675</v>
+        <v>6.08116970279618</v>
       </c>
       <c r="J50" t="n">
-        <v>0.00000000245131418645165</v>
+        <v>0.0000000024513141864597</v>
       </c>
       <c r="K50" t="n">
-        <v>0.112374509304279</v>
+        <v>0.112374509304281</v>
       </c>
       <c r="L50" t="n">
-        <v>0.10491547156734</v>
+        <v>0.104915471567343</v>
       </c>
       <c r="M50" t="n">
         <v>2423</v>
@@ -2842,31 +2842,31 @@
         <v>37</v>
       </c>
       <c r="D51" t="n">
-        <v>0.425914855440946</v>
+        <v>0.425914855440986</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0391683557044575</v>
+        <v>0.0391683557044572</v>
       </c>
       <c r="F51" t="n">
-        <v>1.53099041407984</v>
+        <v>1.5309904140799</v>
       </c>
       <c r="G51" t="n">
-        <v>1.41785459176901</v>
+        <v>1.41785459176907</v>
       </c>
       <c r="H51" t="n">
-        <v>1.6531537589337</v>
+        <v>1.65315375893376</v>
       </c>
       <c r="I51" t="n">
-        <v>10.8739529086863</v>
+        <v>10.8739529086874</v>
       </c>
       <c r="J51" t="n">
-        <v>0.00000000000000000000000043947135080278</v>
+        <v>0.000000000000000000000000439471350798428</v>
       </c>
       <c r="K51" t="n">
-        <v>0.232155744476592</v>
+        <v>0.232155744476574</v>
       </c>
       <c r="L51" t="n">
-        <v>0.226581557503645</v>
+        <v>0.226581557503628</v>
       </c>
       <c r="M51" t="n">
         <v>2423</v>
@@ -2889,31 +2889,31 @@
         <v>38</v>
       </c>
       <c r="D52" t="n">
-        <v>0.377012114608683</v>
+        <v>0.377012114608741</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0403581979115263</v>
+        <v>0.0403581979115265</v>
       </c>
       <c r="F52" t="n">
-        <v>1.45792197141842</v>
+        <v>1.4579219714185</v>
       </c>
       <c r="G52" t="n">
-        <v>1.3470406116841</v>
+        <v>1.34704061168418</v>
       </c>
       <c r="H52" t="n">
-        <v>1.57793050655479</v>
+        <v>1.57793050655488</v>
       </c>
       <c r="I52" t="n">
-        <v>9.3416488871771</v>
+        <v>9.34164888717849</v>
       </c>
       <c r="J52" t="n">
-        <v>0.000000000000000000306886004778754</v>
+        <v>0.000000000000000000306886004775303</v>
       </c>
       <c r="K52" t="n">
-        <v>0.222496199318942</v>
+        <v>0.222496199318901</v>
       </c>
       <c r="L52" t="n">
-        <v>0.216313266510345</v>
+        <v>0.216313266510303</v>
       </c>
       <c r="M52" t="n">
         <v>2423</v>
@@ -2936,31 +2936,31 @@
         <v>39</v>
       </c>
       <c r="D53" t="n">
-        <v>0.583484266252438</v>
+        <v>0.58348426625232</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0339989349614399</v>
+        <v>0.0339989349614347</v>
       </c>
       <c r="F53" t="n">
-        <v>1.79227231813494</v>
+        <v>1.79227231813473</v>
       </c>
       <c r="G53" t="n">
-        <v>1.67673148497652</v>
+        <v>1.67673148497633</v>
       </c>
       <c r="H53" t="n">
-        <v>1.91577488174726</v>
+        <v>1.91577488174701</v>
       </c>
       <c r="I53" t="n">
-        <v>17.1618395374503</v>
+        <v>17.1618395374494</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000346432452856095</v>
+        <v>0.0000000000000000000000000000000000000000000000000000346432452859514</v>
       </c>
       <c r="K53" t="n">
-        <v>0.392511963906779</v>
+        <v>0.392511963906947</v>
       </c>
       <c r="L53" t="n">
-        <v>0.388093869098828</v>
+        <v>0.388093869098998</v>
       </c>
       <c r="M53" t="n">
         <v>2423</v>
@@ -2983,31 +2983,31 @@
         <v>40</v>
       </c>
       <c r="D54" t="n">
-        <v>0.653253808935791</v>
+        <v>0.653253808935821</v>
       </c>
       <c r="E54" t="n">
         <v>0.0325942378938852</v>
       </c>
       <c r="F54" t="n">
-        <v>1.92178378406369</v>
+        <v>1.92178378406375</v>
       </c>
       <c r="G54" t="n">
-        <v>1.80285064285858</v>
+        <v>1.80285064285863</v>
       </c>
       <c r="H54" t="n">
-        <v>2.04856288418556</v>
+        <v>2.04856288418562</v>
       </c>
       <c r="I54" t="n">
-        <v>20.0420028553067</v>
+        <v>20.0420028553076</v>
       </c>
       <c r="J54" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000160231236455443</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000016023123645374</v>
       </c>
       <c r="K54" t="n">
-        <v>0.460602441408901</v>
+        <v>0.46060244140889</v>
       </c>
       <c r="L54" t="n">
-        <v>0.456686669658693</v>
+        <v>0.456686669658682</v>
       </c>
       <c r="M54" t="n">
         <v>2423</v>
@@ -3030,31 +3030,31 @@
         <v>41</v>
       </c>
       <c r="D55" t="n">
-        <v>0.316635440888242</v>
+        <v>0.316635440887825</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0463490207350314</v>
+        <v>0.0463490207350561</v>
       </c>
       <c r="F55" t="n">
-        <v>1.37250212255463</v>
+        <v>1.37250212255406</v>
       </c>
       <c r="G55" t="n">
-        <v>1.25331414684426</v>
+        <v>1.25331414684368</v>
       </c>
       <c r="H55" t="n">
-        <v>1.50302466557176</v>
+        <v>1.50302466557121</v>
       </c>
       <c r="I55" t="n">
-        <v>6.83154543217618</v>
+        <v>6.83154543216353</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0000000000275767857726047</v>
+        <v>0.0000000000275767857748069</v>
       </c>
       <c r="K55" t="n">
-        <v>0.153842942525971</v>
+        <v>0.153842942525159</v>
       </c>
       <c r="L55" t="n">
-        <v>0.146271067291304</v>
+        <v>0.146271067290485</v>
       </c>
       <c r="M55" t="n">
         <v>2423</v>
@@ -3077,31 +3077,31 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>0.114466596117304</v>
+        <v>0.114466596117225</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0429985275354245</v>
+        <v>0.0429985275354244</v>
       </c>
       <c r="F56" t="n">
-        <v>1.12127518549362</v>
+        <v>1.12127518549353</v>
       </c>
       <c r="G56" t="n">
-        <v>1.03064980519152</v>
+        <v>1.03064980519144</v>
       </c>
       <c r="H56" t="n">
-        <v>1.21986928563978</v>
+        <v>1.21986928563968</v>
       </c>
       <c r="I56" t="n">
-        <v>2.66210502261968</v>
+        <v>2.66210502261784</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0080043555329392</v>
+        <v>0.00800435553298231</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0795082084027613</v>
+        <v>0.079508208402836</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0724681182184612</v>
+        <v>0.0724681182185365</v>
       </c>
       <c r="M56" t="n">
         <v>2423</v>
@@ -3124,31 +3124,31 @@
         <v>43</v>
       </c>
       <c r="D57" t="n">
-        <v>0.330774296895241</v>
+        <v>0.330774296895176</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0403577387480245</v>
+        <v>0.0403577387480249</v>
       </c>
       <c r="F57" t="n">
-        <v>1.39204556784218</v>
+        <v>1.39204556784209</v>
       </c>
       <c r="G57" t="n">
-        <v>1.28617555501155</v>
+        <v>1.28617555501147</v>
       </c>
       <c r="H57" t="n">
-        <v>1.50663014500509</v>
+        <v>1.506630145005</v>
       </c>
       <c r="I57" t="n">
-        <v>8.1960562498421</v>
+        <v>8.1960562498404</v>
       </c>
       <c r="J57" t="n">
-        <v>0.00000000000000190593385586796</v>
+        <v>0.00000000000000190593385589186</v>
       </c>
       <c r="K57" t="n">
-        <v>0.166354082818434</v>
+        <v>0.166354082818483</v>
       </c>
       <c r="L57" t="n">
-        <v>0.160014570140247</v>
+        <v>0.160014570140296</v>
       </c>
       <c r="M57" t="n">
         <v>2423</v>
@@ -3171,31 +3171,31 @@
         <v>44</v>
       </c>
       <c r="D58" t="n">
-        <v>0.432718552786579</v>
+        <v>0.432718552786576</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0381409906451478</v>
+        <v>0.0381409906451453</v>
       </c>
       <c r="F58" t="n">
-        <v>1.54144232499711</v>
+        <v>1.5414423249971</v>
       </c>
       <c r="G58" t="n">
         <v>1.43041156581055</v>
       </c>
       <c r="H58" t="n">
-        <v>1.66109146352301</v>
+        <v>1.661091463523</v>
       </c>
       <c r="I58" t="n">
-        <v>11.345236331496</v>
+        <v>11.3452363314966</v>
       </c>
       <c r="J58" t="n">
-        <v>0.00000000000000000000000000774032709495254</v>
+        <v>0.0000000000000000000000000077403270949061</v>
       </c>
       <c r="K58" t="n">
-        <v>0.244711574631508</v>
+        <v>0.244711574631605</v>
       </c>
       <c r="L58" t="n">
-        <v>0.238967936415778</v>
+        <v>0.238967936415876</v>
       </c>
       <c r="M58" t="n">
         <v>2423</v>
@@ -3218,31 +3218,31 @@
         <v>45</v>
       </c>
       <c r="D59" t="n">
-        <v>0.564437929155375</v>
+        <v>0.564437929155399</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0351470743608061</v>
+        <v>0.035147074360809</v>
       </c>
       <c r="F59" t="n">
-        <v>1.75845912629401</v>
+        <v>1.75845912629406</v>
       </c>
       <c r="G59" t="n">
-        <v>1.64140020877743</v>
+        <v>1.64140020877746</v>
       </c>
       <c r="H59" t="n">
-        <v>1.88386627606796</v>
+        <v>1.88386627606801</v>
       </c>
       <c r="I59" t="n">
-        <v>16.059314734452</v>
+        <v>16.0593147344514</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0000000000000000000000000000000000000000000000167803946749531</v>
+        <v>0.000000000000000000000000000000000000000000000016780394675064</v>
       </c>
       <c r="K59" t="n">
-        <v>0.369826803411225</v>
+        <v>0.369826803411135</v>
       </c>
       <c r="L59" t="n">
-        <v>0.365025483818168</v>
+        <v>0.365025483818077</v>
       </c>
       <c r="M59" t="n">
         <v>2423</v>
